--- a/Example/exampleinput_PowermoduleAndCapacitor.xlsx
+++ b/Example/exampleinput_PowermoduleAndCapacitor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="292">
   <si>
     <t xml:space="preserve">Database</t>
   </si>
@@ -805,15 +805,6 @@
   </si>
   <si>
     <t xml:space="preserve">DC-link capacitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staircase result filename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example_staircase.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Excel file of the LCA staircase at service life.</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Replac. Unit (RU)</t>
@@ -1316,7 +1307,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1473,6 +1464,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1523,6 +1530,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -9671,7 +9682,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10267,7 +10278,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -10287,145 +10298,141 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B4" s="45" t="n">
+        <f aca="false">COUNTIF('Inventory - Manufacturing'!B:B,"RU*")</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="25" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="46"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="B6" s="47" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="41" t="n">
-        <f aca="false">COUNTIF('Inventory - Manufacturing'!B:B,"RU*")</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="44" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="42"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="B7" s="47" t="n">
+        <v>666</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="43" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" s="25" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="B8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="B7" s="43" t="n">
-        <v>666</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B11" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="B12" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="49"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="44" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
+      <c r="B14" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>273</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="43" t="n">
+      <c r="A16" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="47" t="n">
         <v>1000</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="49" t="n">
+      <c r="A18" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="53" t="n">
         <v>8</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -10474,54 +10481,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="50"/>
+      <c r="B4" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="53" t="s">
+      <c r="E4" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="F4" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="G4" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="H4" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="53" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="58" t="s">
         <v>286</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
-        <v>289</v>
       </c>
       <c r="B5" s="31" t="n">
         <v>1000</v>
@@ -10546,8 +10553,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
-        <v>290</v>
+      <c r="A6" s="58" t="s">
+        <v>287</v>
       </c>
       <c r="B6" s="31" t="n">
         <v>1000</v>
@@ -10609,57 +10616,57 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
+      <c r="B2" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="B5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="58" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="55" t="n">
+      <c r="B6" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="55" t="n">
+      <c r="C6" s="60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10694,543 +10701,543 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>294</v>
+      <c r="A1" s="61" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56"/>
+      <c r="A2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56"/>
+      <c r="A3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56"/>
+      <c r="A4" s="61"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56"/>
+      <c r="A5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56"/>
+      <c r="A6" s="61"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56"/>
+      <c r="A7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56"/>
+      <c r="A8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56"/>
+      <c r="A9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56"/>
+      <c r="A10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56"/>
+      <c r="A11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56"/>
+      <c r="A12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56"/>
+      <c r="A13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56"/>
+      <c r="A14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56"/>
+      <c r="A15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56"/>
+      <c r="A16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56"/>
+      <c r="A17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56"/>
+      <c r="A18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56"/>
+      <c r="A19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="56"/>
+      <c r="A20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="56"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="56"/>
+      <c r="A22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56"/>
+      <c r="A23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56"/>
+      <c r="A24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="56"/>
+      <c r="A25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="56"/>
+      <c r="A26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="56"/>
+      <c r="A27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="56"/>
+      <c r="A28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="56"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="56"/>
+      <c r="A30" s="61"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="56"/>
+      <c r="A31" s="61"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="56"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="56"/>
+      <c r="A33" s="61"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="56"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="56"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="56"/>
+      <c r="A36" s="61"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="56"/>
+      <c r="A37" s="61"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="56"/>
+      <c r="A38" s="61"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="56"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="56"/>
+      <c r="A40" s="61"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="56"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="56"/>
+      <c r="A42" s="61"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="56"/>
+      <c r="A43" s="61"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="56"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="56"/>
+      <c r="A45" s="61"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="56"/>
+      <c r="A46" s="61"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="56"/>
+      <c r="A47" s="61"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="56"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="56"/>
+      <c r="A49" s="61"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56"/>
+      <c r="A50" s="61"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="56"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="56"/>
+      <c r="A52" s="61"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="56"/>
+      <c r="A53" s="61"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="56"/>
+      <c r="A54" s="61"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="56"/>
+      <c r="A56" s="61"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56"/>
+      <c r="A57" s="61"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="56"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="56"/>
+      <c r="A59" s="61"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="56"/>
+      <c r="A60" s="61"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56"/>
+      <c r="A61" s="61"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="56"/>
+      <c r="A62" s="61"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56"/>
+      <c r="A63" s="61"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="56"/>
+      <c r="A64" s="61"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="56"/>
+      <c r="A65" s="61"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="56"/>
+      <c r="A66" s="61"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="56"/>
+      <c r="A67" s="61"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="56"/>
+      <c r="A68" s="61"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="56"/>
+      <c r="A69" s="61"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56"/>
+      <c r="A70" s="61"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="56"/>
+      <c r="A71" s="61"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="56"/>
+      <c r="A72" s="61"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56"/>
+      <c r="A73" s="61"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56"/>
+      <c r="A74" s="61"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="56"/>
+      <c r="A75" s="61"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="56"/>
+      <c r="A76" s="61"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="56"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="56"/>
+      <c r="A78" s="61"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="56"/>
+      <c r="A79" s="61"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="56"/>
+      <c r="A80" s="61"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="56"/>
+      <c r="A81" s="61"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="56"/>
+      <c r="A82" s="61"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="56"/>
+      <c r="A83" s="61"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="56"/>
+      <c r="A84" s="61"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="56"/>
+      <c r="A85" s="61"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="56"/>
+      <c r="A86" s="61"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="56"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="56"/>
+      <c r="A88" s="61"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="56"/>
+      <c r="A89" s="61"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="56"/>
+      <c r="A90" s="61"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="56"/>
+      <c r="A91" s="61"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="56"/>
+      <c r="A92" s="61"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="56"/>
+      <c r="A93" s="61"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="56"/>
+      <c r="A94" s="61"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="56"/>
+      <c r="A95" s="61"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="56"/>
+      <c r="A96" s="61"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="56"/>
+      <c r="A97" s="61"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="56"/>
+      <c r="A98" s="61"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="56"/>
+      <c r="A99" s="61"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="56"/>
+      <c r="A100" s="61"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="56"/>
+      <c r="A101" s="61"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="56"/>
+      <c r="A102" s="61"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="56"/>
+      <c r="A103" s="61"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="56"/>
+      <c r="A104" s="61"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="56"/>
+      <c r="A105" s="61"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="56"/>
+      <c r="A106" s="61"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="56"/>
+      <c r="A107" s="61"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="56"/>
+      <c r="A108" s="61"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="56"/>
+      <c r="A109" s="61"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="56"/>
+      <c r="A110" s="61"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="56"/>
+      <c r="A111" s="61"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="56"/>
+      <c r="A112" s="61"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="56"/>
+      <c r="A113" s="61"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="56"/>
+      <c r="A114" s="61"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="56"/>
+      <c r="A115" s="61"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="56"/>
+      <c r="A116" s="61"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="56"/>
+      <c r="A117" s="61"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="56"/>
+      <c r="A118" s="61"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="56"/>
+      <c r="A119" s="61"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="56"/>
+      <c r="A120" s="61"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="56"/>
+      <c r="A121" s="61"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="56"/>
+      <c r="A122" s="61"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="56"/>
+      <c r="A123" s="61"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="56"/>
+      <c r="A124" s="61"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="56"/>
+      <c r="A125" s="61"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="56"/>
+      <c r="A126" s="61"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="56"/>
+      <c r="A127" s="61"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="56"/>
+      <c r="A128" s="61"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="56"/>
+      <c r="A129" s="61"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="56"/>
+      <c r="A130" s="61"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="56"/>
+      <c r="A131" s="61"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="56"/>
+      <c r="A132" s="61"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="56"/>
+      <c r="A133" s="61"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="56"/>
+      <c r="A134" s="61"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="56"/>
+      <c r="A135" s="61"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="56"/>
+      <c r="A136" s="61"/>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="56"/>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="56"/>
+      <c r="A138" s="61"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="56"/>
+      <c r="A139" s="61"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="56"/>
+      <c r="A140" s="61"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="56"/>
+      <c r="A141" s="61"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="56"/>
+      <c r="A142" s="61"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="56"/>
+      <c r="A143" s="61"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="56"/>
+      <c r="A144" s="61"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="56"/>
+      <c r="A145" s="61"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="56"/>
+      <c r="A146" s="61"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="56"/>
+      <c r="A147" s="61"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="56"/>
+      <c r="A148" s="61"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="56"/>
+      <c r="A149" s="61"/>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="56"/>
+      <c r="A150" s="61"/>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="56"/>
+      <c r="A151" s="61"/>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="56"/>
+      <c r="A152" s="61"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="56"/>
+      <c r="A153" s="61"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="56"/>
+      <c r="A154" s="61"/>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="56"/>
+      <c r="A155" s="61"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="56"/>
+      <c r="A156" s="61"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="56"/>
+      <c r="A157" s="61"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="56"/>
+      <c r="A158" s="61"/>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="56"/>
+      <c r="A159" s="61"/>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="56"/>
+      <c r="A160" s="61"/>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="56"/>
+      <c r="A161" s="61"/>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="56"/>
+      <c r="A162" s="61"/>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="56"/>
+      <c r="A163" s="61"/>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="56"/>
+      <c r="A164" s="61"/>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="56"/>
+      <c r="A165" s="61"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="56"/>
+      <c r="A166" s="61"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="56"/>
+      <c r="A167" s="61"/>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="56"/>
+      <c r="A168" s="61"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="57"/>
+      <c r="A169" s="62"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="57"/>
+      <c r="A170" s="62"/>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="57"/>
+      <c r="A171" s="62"/>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="57"/>
+      <c r="A172" s="62"/>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="57"/>
+      <c r="A173" s="62"/>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="57"/>
+      <c r="A174" s="62"/>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="57"/>
+      <c r="A175" s="62"/>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="57"/>
+      <c r="A176" s="62"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="57"/>
+      <c r="A177" s="62"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="57"/>
+      <c r="A178" s="62"/>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="57"/>
+      <c r="A179" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
